--- a/Excel/镇魂街/技能/skill_description.xlsx
+++ b/Excel/镇魂街/技能/skill_description.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43904244-12AB-4FC1-8145-7C7257430BBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0FFCBF-F365-4D2C-B833-6E66747833A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,186 +139,194 @@
     <t>被攻击时概率削减对方水晶</t>
   </si>
   <si>
-    <t>攻击敌方1次，造成2点伤害
+    <t>生成1个蓝色水晶</t>
+  </si>
+  <si>
+    <t>每回合有50%几率额外生成1个蓝色水晶</t>
+  </si>
+  <si>
+    <t>攻击敌方单体造成1点伤害，并回复伤害值一半的生命</t>
+  </si>
+  <si>
+    <t>蓄力1回合，获得1枚印记，项羽或者其守护灵的下一次攻击将会消耗全部印记，每一枚增加3点伤害，印记最多同时拥有5枚</t>
+  </si>
+  <si>
+    <t>为自己生成2点护盾
+回复1个黄色水晶</t>
+  </si>
+  <si>
+    <t>刘羽禅的守护灵每次攻击可以额外造成1点伤害</t>
+  </si>
+  <si>
+    <t>形成一个血魔印记，最多同时存在2个
+削减敌方随机颜色水晶一个</t>
+  </si>
+  <si>
+    <t>消耗所有血魔印记，每一个印记恢复红莲缇娜25%最大生命值</t>
+  </si>
+  <si>
+    <t>攻击敌方单体造成2点伤害并50%概率使目标眩晕1回合，冷却时间1回合</t>
+  </si>
+  <si>
+    <t>对敌方前排全部单位造成1点伤害
+立即获得1个红色水晶</t>
+  </si>
+  <si>
+    <t>自己和寄灵人的每次攻击有50%几率额外造成20%伤害</t>
+  </si>
+  <si>
+    <t>对敌方单位进行2段攻击，每段攻击造成1点伤害，并对目标施加2枚印记，印记最多同时存在4枚(可被己方攻击引爆，造成额外伤害，每次攻击引爆1枚印记)</t>
+  </si>
+  <si>
+    <t>自己与守护灵每段攻击都有50%概率获得1枚随机颜色的水晶</t>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成2点伤害并为自己生成1点护盾（护盾不可叠加）</t>
+  </si>
+  <si>
+    <t>水晶每有一个受到敌方影响（偷取、削减）为自身生成1个印记，每1枚印记可代替1个盖文召唤守护灵的水晶</t>
+  </si>
+  <si>
+    <t>对敌方单体目标造成2点伤害，并对该单位施加风神印记</t>
+  </si>
+  <si>
+    <t>对敌方全体造成1点伤害，每个目标50%概率施加风神印记</t>
+  </si>
+  <si>
+    <t>攻击敌方单体造成1点伤害
+50%几率随机偷取对方1个水晶</t>
+  </si>
+  <si>
+    <t>自己与守护灵每回合回复1点生命</t>
+  </si>
+  <si>
+    <t>攻击敌方前排全体造成1点伤害
+随机削减敌方2个水晶</t>
+  </si>
+  <si>
+    <t>将敌方2个红色水晶变为蓝色（蓝色水晶到X时怎么样）</t>
+  </si>
+  <si>
+    <t>攻击敌方单体，禁止敌方单体释放技能，持续1回合</t>
+  </si>
+  <si>
+    <t>为己方生命值最低的单位回复2点生命</t>
+  </si>
+  <si>
+    <t>攻击敌方一列造成2点伤害</t>
+  </si>
+  <si>
+    <t>受到伤害时回复损失生命值等量的红色水晶（受伤致死不生效）</t>
+  </si>
+  <si>
+    <t>立即获得X个红色水晶</t>
+  </si>
+  <si>
+    <t>对敌方单体造成1段高额伤害</t>
+  </si>
+  <si>
+    <t>下一回合内有X%（+效果命中）的概率为所有受到单体伤害的单位完全抵挡一次伤害。</t>
+  </si>
+  <si>
+    <t>对敌方单体进行多段刺击，每次刺击造成伤害并随机获得1个水晶；</t>
+  </si>
+  <si>
+    <t>为敌我双方施加伤害吸收护盾，敌方护盾量为我方的50%，持续到下次行动结束</t>
+  </si>
+  <si>
+    <t>攻击敌方前排单位，造成攻击X%的伤害
+被动效果：每损失X%生命，攻击力增加X%</t>
+  </si>
+  <si>
+    <t>对敌方单体进行1段强力打击，造成攻击力X%的伤害。</t>
+  </si>
+  <si>
+    <t>主动效果：对自身施加buff，1回合内每受到1段伤害有50%概率使进攻者随机减少一枚水晶；</t>
+  </si>
+  <si>
+    <t>主动效果：对场上所有带有风神标记的敌方单位造成1段伤害。被动效果：造成的每次伤害均有概率（基础+效果命中）对目标附加风神标记
+被动效果：当1技能杀死一个敌人时，自动再次释放1次1技能</t>
+  </si>
+  <si>
+    <t>消耗自身一半的最大生命值攻击敌方单体
+被动效果：被召唤出场时立即释放1次本技能</t>
+  </si>
+  <si>
+    <t>为当前生命百分比最低的单位生成护盾，持续到下次行动开始</t>
+  </si>
+  <si>
+    <t>攻击单体目标造成4点伤害，若敌方当前生命值高于最大值的70%，额外增加x%的伤害；若本次攻击未能击杀目标，则自身伤害增加y%持续1回合；若本次攻击击杀了目标，则对另一名目标追加一次z%伤害的攻击</t>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成攻击力X%的伤害
+场上所有单位每次召唤守护灵会为烈风螳螂增加一枚印记，每一枚印记增加烈风螳螂X%攻击力</t>
+  </si>
+  <si>
+    <t>升级描述</t>
+  </si>
+  <si>
+    <t>当前等级技能描述，随等级变化数值格式：[效果ID#字段名#数字类型]，1-整数，2-2位小数，3-百分数（无小数点），4-百分数（两位小数）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方1次，造成攻击100%伤害
 获得1个黄色水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>限制对方单体行动1回合
 50%几率减少对方1个红色水晶
 CD1回合</t>
-  </si>
-  <si>
-    <t>攻击敌方前排全体造成1点伤害
-获得1个红色水晶</t>
-  </si>
-  <si>
-    <t>攻击敌方单体造成1点伤害
-获得2个红色水晶</t>
-  </si>
-  <si>
-    <t>生成1个蓝色水晶</t>
-  </si>
-  <si>
-    <t>每回合有50%几率额外生成1个蓝色水晶</t>
-  </si>
-  <si>
-    <t>攻击敌方单体造成1点伤害，并回复伤害值一半的生命</t>
-  </si>
-  <si>
-    <t>蓄力1回合，获得1枚印记，项羽或者其守护灵的下一次攻击将会消耗全部印记，每一枚增加3点伤害，印记最多同时拥有5枚</t>
-  </si>
-  <si>
-    <t>为自己生成2点护盾
-回复1个黄色水晶</t>
-  </si>
-  <si>
-    <t>刘羽禅的守护灵每次攻击可以额外造成1点伤害</t>
-  </si>
-  <si>
-    <t>形成一个血魔印记，最多同时存在2个
-削减敌方随机颜色水晶一个</t>
-  </si>
-  <si>
-    <t>消耗所有血魔印记，每一个印记恢复红莲缇娜25%最大生命值</t>
-  </si>
-  <si>
-    <t>攻击敌方单体造成2点伤害并50%概率使目标眩晕1回合，冷却时间1回合</t>
-  </si>
-  <si>
-    <t>对敌方前排全部单位造成1点伤害
-立即获得1个红色水晶</t>
-  </si>
-  <si>
-    <t>攻击敌方1次，造成1点伤害
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方前排单体造成攻击80%伤害
+50%概率获得1个红色水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体造成攻击150%伤害
+50%概率获得1个红色水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方1次，造成攻击100%伤害
 获得2个黄色水晶</t>
-  </si>
-  <si>
-    <t>自己和寄灵人的每次攻击有50%几率额外造成20%伤害</t>
-  </si>
-  <si>
-    <t>对敌方单位进行2段攻击，每段攻击造成1点伤害，并对目标施加2枚印记，印记最多同时存在4枚(可被己方攻击引爆，造成额外伤害，每次攻击引爆1枚印记)</t>
-  </si>
-  <si>
-    <t>自己与守护灵每段攻击都有50%概率获得1枚随机颜色的水晶</t>
-  </si>
-  <si>
-    <t>攻击敌方单体，造成2点伤害并为自己生成1点护盾（护盾不可叠加）</t>
-  </si>
-  <si>
-    <t>水晶每有一个受到敌方影响（偷取、削减）为自身生成1个印记，每1枚印记可代替1个盖文召唤守护灵的水晶</t>
-  </si>
-  <si>
-    <t>对敌方单体目标造成2点伤害，并对该单位施加风神印记</t>
-  </si>
-  <si>
-    <t>对敌方全体造成1点伤害，每个目标50%概率施加风神印记</t>
-  </si>
-  <si>
-    <t>攻击敌方单体造成1点伤害
-50%几率随机偷取对方1个水晶</t>
-  </si>
-  <si>
-    <t>自己与守护灵每回合回复1点生命</t>
-  </si>
-  <si>
-    <t>攻击敌方前排全体造成1点伤害
-随机削减敌方2个水晶</t>
-  </si>
-  <si>
-    <t>将敌方2个红色水晶变为蓝色（蓝色水晶到X时怎么样）</t>
-  </si>
-  <si>
-    <t>攻击敌方单体，禁止敌方单体释放技能，持续1回合</t>
-  </si>
-  <si>
-    <t>为己方生命值最低的单位回复2点生命</t>
-  </si>
-  <si>
-    <t>攻击敌方一列造成2点伤害</t>
-  </si>
-  <si>
-    <t>受到伤害时回复损失生命值等量的红色水晶（受伤致死不生效）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基础效果：对敌方单体造成1段攻击。
-该技能有X%（+效果命中）的概率可以触发连击效果</t>
-  </si>
-  <si>
-    <t>基础效果：对敌方单体进行1段攻击，造成攻击力X%的伤害；
-该技能有X%（+效果命中）概率可以触发连击效果</t>
-  </si>
-  <si>
-    <t>攻击敌方单体造成X%伤害
+该技能可以触发连击效果</t>
+  </si>
+  <si>
+    <t>召唤地狱蛇随机缠绕敌方前排2目标，降低目标减伤x%，使其随机陷入禁锢、主动封印(不能释放主动技能)、被动封印（被动技能失效）状态中的一种，持续2回合
+该技能可以触发连击效果</t>
+  </si>
+  <si>
+    <t>以一定生命为代价，释放猛烈的气息冲击敌方一列，对前排造成攻击力50%伤害，对后排造成攻击力100%伤害
+该技能可以触发连击效果</t>
+  </si>
+  <si>
+    <t>禁锢敌方单体1回合，如果寄灵人身上有血魔印记，则技能有额外效果：1个血魔印记，禁锢同时造成每回合X的伤害；2个血魔印记，禁锢时间增加1回合；3个血魔印记，禁锢同时减少目标X%防御；4个血魔印记，禁锢时间增加1回合
+该技能可以触发连击效果</t>
+  </si>
+  <si>
+    <t>对目标单体进行2段重击
+该技能可以触发连击效果</t>
+  </si>
+  <si>
+    <t>基础效果：对敌方单体进行1段攻击，造成攻击力100%的伤害；
+该技能可以触发连击效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体造成100%伤害
 被动效果：每次造成伤害提升自身暴击伤害25%</t>
-  </si>
-  <si>
-    <t>对敌方全体造成攻击力X%的伤害
-该技能有X%（+效果命中）的概率触发连击效果</t>
-  </si>
-  <si>
-    <t>立即获得X个红色水晶</t>
-  </si>
-  <si>
-    <t>对敌方单体造成1段高额伤害</t>
-  </si>
-  <si>
-    <t>禁锢敌方单体1回合，如果寄灵人身上有血魔印记，则技能有额外效果：1个血魔印记，禁锢同时造成每回合X的伤害；2个血魔印记，禁锢时间增加1回合；3个血魔印记，禁锢同时减少目标X%防御；4个血魔印记，禁锢时间增加1回合
-该技能有X%（+效果命中）的概率触发连击效果</t>
-  </si>
-  <si>
-    <t>召唤地狱蛇随机缠绕敌方前排2目标，降低目标减伤x%，使其随机陷入禁锢、主动封印(不能释放主动技能)、被动封印（被动技能失效）状态中的一种，持续2回合
-该技能有X%（+效果命中）概率可以触发连击效果</t>
-  </si>
-  <si>
-    <t>下一回合内有X%（+效果命中）的概率为所有受到单体伤害的单位完全抵挡一次伤害。</t>
-  </si>
-  <si>
-    <t>对敌方单体进行多段刺击，每次刺击造成伤害并随机获得1个水晶；</t>
-  </si>
-  <si>
-    <t>为敌我双方施加伤害吸收护盾，敌方护盾量为我方的50%，持续到下次行动结束</t>
-  </si>
-  <si>
-    <t>以一定生命为代价，释放猛烈的气息冲击敌方一列，对前排造成攻击力50%伤害，对后排造成攻击力100%伤害
-该技能有X%（+效果命中）概率可以触发连击效果</t>
-  </si>
-  <si>
-    <t>攻击敌方前排单位，造成攻击X%的伤害
-被动效果：每损失X%生命，攻击力增加X%</t>
-  </si>
-  <si>
-    <t>对目标单体进行2段重击
-该技能有X%（+效果命中）的概率触发连击效果</t>
-  </si>
-  <si>
-    <t>对敌方单体进行1段强力打击，造成攻击力X%的伤害。</t>
-  </si>
-  <si>
-    <t>主动效果：对自身施加buff，1回合内每受到1段伤害有50%概率使进攻者随机减少一枚水晶；</t>
-  </si>
-  <si>
-    <t>主动效果：对场上所有带有风神标记的敌方单位造成1段伤害。被动效果：造成的每次伤害均有概率（基础+效果命中）对目标附加风神标记
-被动效果：当1技能杀死一个敌人时，自动再次释放1次1技能</t>
-  </si>
-  <si>
-    <t>消耗自身一半的最大生命值攻击敌方单体
-被动效果：被召唤出场时立即释放1次本技能</t>
-  </si>
-  <si>
-    <t>为当前生命百分比最低的单位生成护盾，持续到下次行动开始</t>
-  </si>
-  <si>
-    <t>攻击单体目标造成4点伤害，若敌方当前生命值高于最大值的70%，额外增加x%的伤害；若本次攻击未能击杀目标，则自身伤害增加y%持续1回合；若本次攻击击杀了目标，则对另一名目标追加一次z%伤害的攻击</t>
-  </si>
-  <si>
-    <t>攻击敌方单体，造成攻击力X%的伤害
-场上所有单位每次召唤守护灵会为烈风螳螂增加一枚印记，每一枚印记增加烈风螳螂X%攻击力</t>
-  </si>
-  <si>
-    <t>升级描述</t>
-  </si>
-  <si>
-    <t>当前等级技能描述，随等级变化数值格式：[效果ID#字段名#数字类型]，1-整数，2-2位小数，3-百分数（无小数点），4-百分数（两位小数）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方全体造成攻击力100%的伤害
+该技能可以触发连击效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -710,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -785,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -835,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -850,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -865,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -880,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -895,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -910,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -925,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -955,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -970,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -985,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1000,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1015,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1045,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1060,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1075,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1090,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1120,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1150,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1165,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1180,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1210,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1225,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1240,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1270,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1285,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1300,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1330,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1345,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -1360,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1375,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1390,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1405,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1420,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1435,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1450,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1465,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1480,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1495,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1510,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1525,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1540,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1555,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1570,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1585,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1600,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1615,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1660,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1675,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1690,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1705,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1720,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1735,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1750,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1765,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1780,7 +1788,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1795,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1810,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1825,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1840,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1855,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1870,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1885,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1900,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -1915,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1930,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1945,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1960,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1975,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1990,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2005,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2020,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -2035,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2050,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2065,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2080,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2095,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2110,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2125,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2140,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2155,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2170,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2185,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2200,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2215,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2245,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -2260,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2275,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2290,7 +2298,7 @@
         <v>3</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2305,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2320,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2335,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2350,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2365,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2380,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2395,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2410,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2425,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2455,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2470,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2485,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2500,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2515,7 +2523,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2530,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2545,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2560,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2575,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2590,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2605,7 +2613,7 @@
         <v>4</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2620,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2635,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -2650,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -2665,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -2680,7 +2688,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2695,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2710,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -2725,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -2740,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -2755,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -2770,7 +2778,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -2785,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -2800,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -2815,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -2830,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -2845,7 +2853,7 @@
         <v>5</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -2860,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -2875,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -2890,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -2905,7 +2913,7 @@
         <v>4</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -2920,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -2935,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -2965,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -2980,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -2995,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3010,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -3025,7 +3033,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3040,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3055,7 +3063,7 @@
         <v>4</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3070,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3085,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -3100,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -3115,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3130,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3145,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3160,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3175,7 +3183,7 @@
         <v>2</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3190,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3205,7 +3213,7 @@
         <v>4</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3220,7 +3228,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3235,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3250,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -3265,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -3280,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -3295,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3310,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -3325,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -3340,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -3355,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -3370,7 +3378,7 @@
         <v>5</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -3385,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -3400,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -3415,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -3430,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -3445,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -3460,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -3475,7 +3483,7 @@
         <v>2</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3490,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -3505,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -3520,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
@@ -3535,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -3550,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3565,7 +3573,7 @@
         <v>3</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -3580,7 +3588,7 @@
         <v>4</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -3595,7 +3603,7 @@
         <v>5</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
@@ -3610,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -3625,7 +3633,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -3640,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -3655,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -3670,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3685,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -3700,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -3715,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -3730,7 +3738,7 @@
         <v>4</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -3745,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3760,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -3775,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -3790,7 +3798,7 @@
         <v>3</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -3805,7 +3813,7 @@
         <v>4</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -3820,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3835,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -3850,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -3865,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -3880,7 +3888,7 @@
         <v>4</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -3895,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -3910,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -3925,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -3940,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -3955,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -3970,7 +3978,7 @@
         <v>5</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3985,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -4000,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -4015,7 +4023,7 @@
         <v>3</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -4030,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -4045,7 +4053,7 @@
         <v>5</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4060,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -4075,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -4090,7 +4098,7 @@
         <v>3</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -4105,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -4120,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -4135,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -4150,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -4165,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -4180,7 +4188,7 @@
         <v>4</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -4195,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4210,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -4225,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -4240,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -4255,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -4270,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
@@ -4285,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -4300,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -4315,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -4330,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -4345,7 +4353,7 @@
         <v>5</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4360,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -4375,7 +4383,7 @@
         <v>2</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -4390,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -4405,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -4420,7 +4428,7 @@
         <v>5</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4435,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -4450,7 +4458,7 @@
         <v>2</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -4465,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -4480,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -4495,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -4510,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -4525,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -4540,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -4555,7 +4563,7 @@
         <v>4</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -4570,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -4585,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -4600,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -4615,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -4630,7 +4638,7 @@
         <v>4</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -4645,7 +4653,7 @@
         <v>5</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
